--- a/SIM Card Details/Airtel/BULK_SIM_KYC_DOWNLOAD2021-09-01T16_10_05+05_30.xlsx
+++ b/SIM Card Details/Airtel/BULK_SIM_KYC_DOWNLOAD2021-09-01T16_10_05+05_30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\SIM Card Details\Airtel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CrazyCoder\CrazyCoder\SIM Card Details\Airtel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="133">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>8991000904808357672</t>
+  </si>
+  <si>
+    <t>6309028502</t>
+  </si>
+  <si>
+    <t>8991000905647092909</t>
+  </si>
+  <si>
+    <t>Kakatiya energy 395 Yearly Advance rental plan(without voice with SMS) - AP_M</t>
   </si>
 </sst>
 </file>
@@ -501,12 +510,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
@@ -896,7 +909,7 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
@@ -2006,8 +2019,52 @@
         <v>77</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="E2:E27">
       <formula1>"M2ML 2G 500MB 200 SMS - INR70 PM AR"</formula1>
     </dataValidation>
@@ -2017,6 +2074,9 @@
     <dataValidation type="list" allowBlank="1" sqref="P2:P228">
       <formula1>"UPDATE,NO_ACTION"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E28">
+      <formula1>"Kakatiya energy 395 Yearly Advance rental plan(without voice with SMS) - AP_M"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SIM Card Details/Airtel/BULK_SIM_KYC_DOWNLOAD2021-09-01T16_10_05+05_30.xlsx
+++ b/SIM Card Details/Airtel/BULK_SIM_KYC_DOWNLOAD2021-09-01T16_10_05+05_30.xlsx
@@ -106,64 +106,64 @@
     <t>UPDATE</t>
   </si>
   <si>
-    <t>5754000558762</t>
-  </si>
-  <si>
-    <t>5754000558758</t>
-  </si>
-  <si>
-    <t>5754000558756</t>
-  </si>
-  <si>
-    <t>5754000558764</t>
-  </si>
-  <si>
-    <t>5754000558759</t>
-  </si>
-  <si>
-    <t>5754000558760</t>
-  </si>
-  <si>
-    <t>5754000558757</t>
-  </si>
-  <si>
-    <t>5754000558763</t>
-  </si>
-  <si>
-    <t>5754000558761</t>
-  </si>
-  <si>
-    <t>5754000558755</t>
-  </si>
-  <si>
-    <t>8991000905770767822</t>
-  </si>
-  <si>
-    <t>8991000905770767780</t>
-  </si>
-  <si>
-    <t>8991000905770767764</t>
-  </si>
-  <si>
-    <t>8991000905770767848</t>
-  </si>
-  <si>
-    <t>8991000905770767798</t>
-  </si>
-  <si>
-    <t>8991000905770767806</t>
-  </si>
-  <si>
-    <t>8991000905770767772</t>
-  </si>
-  <si>
-    <t>8991000905770767830</t>
-  </si>
-  <si>
-    <t>8991000905770767814</t>
-  </si>
-  <si>
-    <t>8991000905770767756</t>
+    <t>5754000558770</t>
+  </si>
+  <si>
+    <t>8991000905770767905</t>
+  </si>
+  <si>
+    <t>5754000558769</t>
+  </si>
+  <si>
+    <t>8991000905770767897</t>
+  </si>
+  <si>
+    <t>5754000558773</t>
+  </si>
+  <si>
+    <t>8991000905770767939</t>
+  </si>
+  <si>
+    <t>5754000558767</t>
+  </si>
+  <si>
+    <t>8991000905770767871</t>
+  </si>
+  <si>
+    <t>5754000558765</t>
+  </si>
+  <si>
+    <t>8991000905770767855</t>
+  </si>
+  <si>
+    <t>5754000558774</t>
+  </si>
+  <si>
+    <t>8991000905770767947</t>
+  </si>
+  <si>
+    <t>5754000558771</t>
+  </si>
+  <si>
+    <t>8991000905770767913</t>
+  </si>
+  <si>
+    <t>5754000558772</t>
+  </si>
+  <si>
+    <t>8991000905770767921</t>
+  </si>
+  <si>
+    <t>5754000558768</t>
+  </si>
+  <si>
+    <t>8991000905770767889</t>
+  </si>
+  <si>
+    <t>5754000558766</t>
+  </si>
+  <si>
+    <t>8991000905770767863</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -240,6 +246,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,11 +603,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -640,11 +647,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -684,11 +691,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -728,11 +735,11 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -772,11 +779,11 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -816,11 +823,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -860,11 +867,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -904,11 +911,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -948,11 +955,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -992,10 +999,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
@@ -1060,71 +1067,21 @@
       <c r="B16" s="4"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E27">
+    <dataValidation type="list" allowBlank="1" sqref="E17">
       <formula1>"Kakatiya energy 395 Yearly Advance rental plan(without voice with SMS) - AP_M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E26">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E16">
       <formula1>"M2ML 2G 500MB 200 SMS - INR70 PM AR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G227">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G217">
       <formula1>"Vehicle Tracking System (VTS)/OBD/TCU,Smart Meter,Asset Tracking,POS Machine,Home/Building Automation,Industrial Automation,Surveillance,Personal Tracker,Traffic/Parking Management,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P227">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P217">
       <formula1>"UPDATE,NO_ACTION"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SIM Card Details/Airtel/BULK_SIM_KYC_DOWNLOAD2021-09-01T16_10_05+05_30.xlsx
+++ b/SIM Card Details/Airtel/BULK_SIM_KYC_DOWNLOAD2021-09-01T16_10_05+05_30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>MOBILE_NUMBER</t>
   </si>
@@ -106,64 +106,34 @@
     <t>UPDATE</t>
   </si>
   <si>
-    <t>5754000558770</t>
-  </si>
-  <si>
-    <t>8991000905770767905</t>
-  </si>
-  <si>
-    <t>5754000558769</t>
-  </si>
-  <si>
-    <t>8991000905770767897</t>
-  </si>
-  <si>
-    <t>5754000558773</t>
-  </si>
-  <si>
-    <t>8991000905770767939</t>
-  </si>
-  <si>
-    <t>5754000558767</t>
-  </si>
-  <si>
-    <t>8991000905770767871</t>
-  </si>
-  <si>
-    <t>5754000558765</t>
-  </si>
-  <si>
-    <t>8991000905770767855</t>
-  </si>
-  <si>
-    <t>5754000558774</t>
-  </si>
-  <si>
-    <t>8991000905770767947</t>
-  </si>
-  <si>
-    <t>5754000558771</t>
-  </si>
-  <si>
-    <t>8991000905770767913</t>
-  </si>
-  <si>
-    <t>5754000558772</t>
-  </si>
-  <si>
-    <t>8991000905770767921</t>
-  </si>
-  <si>
-    <t>5754000558768</t>
-  </si>
-  <si>
-    <t>8991000905770767889</t>
-  </si>
-  <si>
-    <t>5754000558766</t>
-  </si>
-  <si>
-    <t>8991000905770767863</t>
+    <t>5754000558778</t>
+  </si>
+  <si>
+    <t>8991000905770767988</t>
+  </si>
+  <si>
+    <t>5754000558777</t>
+  </si>
+  <si>
+    <t>8991000905770767970</t>
+  </si>
+  <si>
+    <t>5754000558776</t>
+  </si>
+  <si>
+    <t>8991000905770767962</t>
+  </si>
+  <si>
+    <t>5754000558775</t>
+  </si>
+  <si>
+    <t>8991000905770767954</t>
+  </si>
+  <si>
+    <t>5754000558779</t>
+  </si>
+  <si>
+    <t>8991000905770767996</t>
   </si>
 </sst>
 </file>
@@ -179,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +164,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -236,17 +200,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +569,7 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
@@ -636,7 +599,7 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
@@ -650,7 +613,7 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
@@ -680,7 +643,7 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N3" t="s">
@@ -694,7 +657,7 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
@@ -724,7 +687,7 @@
       <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N4" t="s">
@@ -738,7 +701,7 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
@@ -768,7 +731,7 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N5" t="s">
@@ -782,7 +745,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -812,7 +775,7 @@
       <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="N6" t="s">
@@ -822,266 +785,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E17">
+    <dataValidation type="list" allowBlank="1" sqref="E7">
       <formula1>"Kakatiya energy 395 Yearly Advance rental plan(without voice with SMS) - AP_M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E16">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E6">
       <formula1>"M2ML 2G 500MB 200 SMS - INR70 PM AR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G217">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G207">
       <formula1>"Vehicle Tracking System (VTS)/OBD/TCU,Smart Meter,Asset Tracking,POS Machine,Home/Building Automation,Industrial Automation,Surveillance,Personal Tracker,Traffic/Parking Management,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P217">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P207">
       <formula1>"UPDATE,NO_ACTION"</formula1>
     </dataValidation>
   </dataValidations>
